--- a/Data Files/Input Validation/04. branch/Case9/Auto_Branch_Case9_C2.xlsx
+++ b/Data Files/Input Validation/04. branch/Case9/Auto_Branch_Case9_C2.xlsx
@@ -258,7 +258,7 @@
     <t xml:space="preserve">V</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">Tyu-asd52</t>
@@ -331,8 +331,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -414,7 +415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,6 +429,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -451,7 +456,7 @@
   <dimension ref="A1:BQ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -676,7 +681,7 @@
       <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
